--- a/config/forms/contact/moh-create.xlsx
+++ b/config/forms/contact/moh-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC0AB8-BDED-49C8-B668-DEBD241F7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E2C37-4AC2-4C8F-8DAA-F555DB9D9822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
     <t>An associated primary contact will be automatically created.</t>
   </si>
   <si>
-    <t>concat(../../moh/name, "'s Primary Contact")</t>
+    <t>concat(../../moh/name, " - Primary Contact")</t>
   </si>
 </sst>
 </file>
@@ -611,11 +611,11 @@
   <dimension ref="A1:N969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-22 15-17</v>
+        <v>2024-01-20 10-58</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
